--- a/database/industries/dode/shekarbon/income/yearly/rial.xlsx
+++ b/database/industries/dode/shekarbon/income/yearly/rial.xlsx
@@ -175,6 +175,11 @@
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -199,6 +204,21 @@
       <c r="H1" s="2">
         <v/>
       </c>
+      <c r="I1" s="2">
+        <v/>
+      </c>
+      <c r="J1" s="2">
+        <v/>
+      </c>
+      <c r="K1" s="2">
+        <v/>
+      </c>
+      <c r="L1" s="2">
+        <v/>
+      </c>
+      <c r="M1" s="2">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="B2" s="3" t="inlineStr">
@@ -224,6 +244,21 @@
       <c r="H2" s="2">
         <v/>
       </c>
+      <c r="I2" s="2">
+        <v/>
+      </c>
+      <c r="J2" s="2">
+        <v/>
+      </c>
+      <c r="K2" s="2">
+        <v/>
+      </c>
+      <c r="L2" s="2">
+        <v/>
+      </c>
+      <c r="M2" s="2">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="B3" s="4" t="inlineStr">
@@ -249,6 +284,21 @@
       <c r="H3" s="2">
         <v/>
       </c>
+      <c r="I3" s="2">
+        <v/>
+      </c>
+      <c r="J3" s="2">
+        <v/>
+      </c>
+      <c r="K3" s="2">
+        <v/>
+      </c>
+      <c r="L3" s="2">
+        <v/>
+      </c>
+      <c r="M3" s="2">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="2">
@@ -272,6 +322,21 @@
       <c r="H4" s="2">
         <v/>
       </c>
+      <c r="I4" s="2">
+        <v/>
+      </c>
+      <c r="J4" s="2">
+        <v/>
+      </c>
+      <c r="K4" s="2">
+        <v/>
+      </c>
+      <c r="L4" s="2">
+        <v/>
+      </c>
+      <c r="M4" s="2">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="5" t="inlineStr">
@@ -297,6 +362,21 @@
       <c r="H5" s="5">
         <v/>
       </c>
+      <c r="I5" s="5">
+        <v/>
+      </c>
+      <c r="J5" s="5">
+        <v/>
+      </c>
+      <c r="K5" s="5">
+        <v/>
+      </c>
+      <c r="L5" s="5">
+        <v/>
+      </c>
+      <c r="M5" s="5">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="6" t="inlineStr">
@@ -322,6 +402,21 @@
       <c r="H6" s="5">
         <v/>
       </c>
+      <c r="I6" s="5">
+        <v/>
+      </c>
+      <c r="J6" s="5">
+        <v/>
+      </c>
+      <c r="K6" s="5">
+        <v/>
+      </c>
+      <c r="L6" s="5">
+        <v/>
+      </c>
+      <c r="M6" s="5">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="2">
@@ -345,6 +440,21 @@
       <c r="H7" s="2">
         <v/>
       </c>
+      <c r="I7" s="2">
+        <v/>
+      </c>
+      <c r="J7" s="2">
+        <v/>
+      </c>
+      <c r="K7" s="2">
+        <v/>
+      </c>
+      <c r="L7" s="2">
+        <v/>
+      </c>
+      <c r="M7" s="2">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
@@ -357,25 +467,50 @@
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
+          <t>12 ماهه منتهی به 1391/12</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1392/12</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1393/12</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1394/12</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1395/12</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr">
+        <is>
           <t>12 ماهه منتهی به 1396/12</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="J8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1397/12</t>
         </is>
       </c>
-      <c r="F8" s="7" t="inlineStr">
+      <c r="K8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1398/12</t>
         </is>
       </c>
-      <c r="G8" s="7" t="inlineStr">
+      <c r="L8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1399/12</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr">
+      <c r="M8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1400/12</t>
         </is>
@@ -392,27 +527,52 @@
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
+          <t>1393-04-19 (18)</t>
+        </is>
+      </c>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>1394-03-07 (19)</t>
+        </is>
+      </c>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>1395-03-19 (18)</t>
+        </is>
+      </c>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>1396-03-09 (12)</t>
+        </is>
+      </c>
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>1397-03-10 (15)</t>
+        </is>
+      </c>
+      <c r="I9" s="10" t="inlineStr">
+        <is>
           <t>1398-03-09 (8)</t>
         </is>
       </c>
-      <c r="E9" s="10" t="inlineStr">
+      <c r="J9" s="10" t="inlineStr">
         <is>
           <t>1399-03-09 (8)</t>
         </is>
       </c>
-      <c r="F9" s="10" t="inlineStr">
+      <c r="K9" s="10" t="inlineStr">
         <is>
           <t>1400-03-10 (9)</t>
         </is>
       </c>
-      <c r="G9" s="10" t="inlineStr">
+      <c r="L9" s="10" t="inlineStr">
         <is>
           <t>1401-03-09 (9)</t>
         </is>
       </c>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>1401-04-30 (3)</t>
+      <c r="M9" s="10" t="inlineStr">
+        <is>
+          <t>1401-07-30 (4)</t>
         </is>
       </c>
     </row>
@@ -438,6 +598,21 @@
       <c r="H10" s="12">
         <v/>
       </c>
+      <c r="I10" s="12">
+        <v/>
+      </c>
+      <c r="J10" s="12">
+        <v/>
+      </c>
+      <c r="K10" s="12">
+        <v/>
+      </c>
+      <c r="L10" s="12">
+        <v/>
+      </c>
+      <c r="M10" s="12">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="13" t="inlineStr">
@@ -449,18 +624,33 @@
         <v/>
       </c>
       <c r="D11" s="14">
+        <v>816457</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1350661</v>
+      </c>
+      <c r="F11" s="14">
+        <v>985662</v>
+      </c>
+      <c r="G11" s="14">
+        <v>830678</v>
+      </c>
+      <c r="H11" s="14">
+        <v>934324</v>
+      </c>
+      <c r="I11" s="14">
         <v>1489755</v>
       </c>
-      <c r="E11" s="14">
+      <c r="J11" s="14">
         <v>2682940</v>
       </c>
-      <c r="F11" s="14">
+      <c r="K11" s="14">
         <v>2986339</v>
       </c>
-      <c r="G11" s="14">
+      <c r="L11" s="14">
         <v>5965435</v>
       </c>
-      <c r="H11" s="14">
+      <c r="M11" s="14">
         <v>10103962</v>
       </c>
     </row>
@@ -474,18 +664,33 @@
         <v/>
       </c>
       <c r="D12" s="12">
+        <v>-604323</v>
+      </c>
+      <c r="E12" s="12">
+        <v>-1127524</v>
+      </c>
+      <c r="F12" s="12">
+        <v>-869403</v>
+      </c>
+      <c r="G12" s="12">
+        <v>-746705</v>
+      </c>
+      <c r="H12" s="12">
+        <v>-820677</v>
+      </c>
+      <c r="I12" s="12">
         <v>-1093572</v>
       </c>
-      <c r="E12" s="12">
+      <c r="J12" s="12">
         <v>-1915543</v>
       </c>
-      <c r="F12" s="12">
+      <c r="K12" s="12">
         <v>-2328617</v>
       </c>
-      <c r="G12" s="12">
+      <c r="L12" s="12">
         <v>-4450800</v>
       </c>
-      <c r="H12" s="12">
+      <c r="M12" s="12">
         <v>-7694963</v>
       </c>
     </row>
@@ -499,18 +704,33 @@
         <v/>
       </c>
       <c r="D13" s="16">
+        <v>212134</v>
+      </c>
+      <c r="E13" s="16">
+        <v>223137</v>
+      </c>
+      <c r="F13" s="16">
+        <v>116259</v>
+      </c>
+      <c r="G13" s="16">
+        <v>83973</v>
+      </c>
+      <c r="H13" s="16">
+        <v>113647</v>
+      </c>
+      <c r="I13" s="16">
         <v>396183</v>
       </c>
-      <c r="E13" s="16">
+      <c r="J13" s="16">
         <v>767397</v>
       </c>
-      <c r="F13" s="16">
+      <c r="K13" s="16">
         <v>657722</v>
       </c>
-      <c r="G13" s="16">
+      <c r="L13" s="16">
         <v>1514635</v>
       </c>
-      <c r="H13" s="16">
+      <c r="M13" s="16">
         <v>2408999</v>
       </c>
     </row>
@@ -524,18 +744,33 @@
         <v/>
       </c>
       <c r="D14" s="12">
+        <v>-23902</v>
+      </c>
+      <c r="E14" s="12">
+        <v>-31191</v>
+      </c>
+      <c r="F14" s="12">
+        <v>-39516</v>
+      </c>
+      <c r="G14" s="12">
+        <v>-51165</v>
+      </c>
+      <c r="H14" s="12">
+        <v>-63113</v>
+      </c>
+      <c r="I14" s="12">
         <v>-93811</v>
       </c>
-      <c r="E14" s="12">
+      <c r="J14" s="12">
         <v>-178095</v>
       </c>
-      <c r="F14" s="12">
+      <c r="K14" s="12">
         <v>-139126</v>
       </c>
-      <c r="G14" s="12">
+      <c r="L14" s="12">
         <v>-483226</v>
       </c>
-      <c r="H14" s="12">
+      <c r="M14" s="12">
         <v>-677517</v>
       </c>
     </row>
@@ -553,16 +788,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J15" s="14">
         <v>0</v>
       </c>
-      <c r="F15" s="14">
+      <c r="K15" s="14">
         <v>-160741</v>
       </c>
-      <c r="G15" s="14">
+      <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="H15" s="14">
+      <c r="M15" s="14">
         <v>0</v>
       </c>
     </row>
@@ -576,18 +836,33 @@
         <v/>
       </c>
       <c r="D16" s="12">
+        <v>-19788</v>
+      </c>
+      <c r="E16" s="12">
+        <v>-13535</v>
+      </c>
+      <c r="F16" s="12">
+        <v>-14359</v>
+      </c>
+      <c r="G16" s="12">
+        <v>4914</v>
+      </c>
+      <c r="H16" s="12">
+        <v>496</v>
+      </c>
+      <c r="I16" s="12">
         <v>-229</v>
       </c>
-      <c r="E16" s="12">
+      <c r="J16" s="12">
         <v>2022</v>
       </c>
-      <c r="F16" s="12">
+      <c r="K16" s="12">
         <v>-59105</v>
       </c>
-      <c r="G16" s="12">
+      <c r="L16" s="12">
         <v>28901</v>
       </c>
-      <c r="H16" s="12">
+      <c r="M16" s="12">
         <v>30206</v>
       </c>
     </row>
@@ -601,18 +876,33 @@
         <v/>
       </c>
       <c r="D17" s="16">
+        <v>168444</v>
+      </c>
+      <c r="E17" s="16">
+        <v>178411</v>
+      </c>
+      <c r="F17" s="16">
+        <v>62384</v>
+      </c>
+      <c r="G17" s="16">
+        <v>37722</v>
+      </c>
+      <c r="H17" s="16">
+        <v>51030</v>
+      </c>
+      <c r="I17" s="16">
         <v>302143</v>
       </c>
-      <c r="E17" s="16">
+      <c r="J17" s="16">
         <v>591324</v>
       </c>
-      <c r="F17" s="16">
+      <c r="K17" s="16">
         <v>298750</v>
       </c>
-      <c r="G17" s="16">
+      <c r="L17" s="16">
         <v>1060310</v>
       </c>
-      <c r="H17" s="16">
+      <c r="M17" s="16">
         <v>1761688</v>
       </c>
     </row>
@@ -626,18 +916,33 @@
         <v/>
       </c>
       <c r="D18" s="12">
+        <v>-56931</v>
+      </c>
+      <c r="E18" s="12">
+        <v>-44084</v>
+      </c>
+      <c r="F18" s="12">
+        <v>-31879</v>
+      </c>
+      <c r="G18" s="12">
+        <v>-24605</v>
+      </c>
+      <c r="H18" s="12">
+        <v>-17255</v>
+      </c>
+      <c r="I18" s="12">
         <v>-11522</v>
       </c>
-      <c r="E18" s="12">
+      <c r="J18" s="12">
         <v>-14319</v>
       </c>
-      <c r="F18" s="12">
+      <c r="K18" s="12">
         <v>-23233</v>
       </c>
-      <c r="G18" s="12">
+      <c r="L18" s="12">
         <v>-17332</v>
       </c>
-      <c r="H18" s="12">
+      <c r="M18" s="12">
         <v>-52343</v>
       </c>
     </row>
@@ -651,18 +956,33 @@
         <v/>
       </c>
       <c r="D19" s="14">
+        <v>29824</v>
+      </c>
+      <c r="E19" s="14">
+        <v>56438</v>
+      </c>
+      <c r="F19" s="14">
+        <v>32721</v>
+      </c>
+      <c r="G19" s="14">
+        <v>30028</v>
+      </c>
+      <c r="H19" s="14">
+        <v>19246</v>
+      </c>
+      <c r="I19" s="14">
         <v>3782</v>
       </c>
-      <c r="E19" s="14">
+      <c r="J19" s="14">
         <v>22537</v>
       </c>
-      <c r="F19" s="14">
+      <c r="K19" s="14">
         <v>291052</v>
       </c>
-      <c r="G19" s="14">
+      <c r="L19" s="14">
         <v>606439</v>
       </c>
-      <c r="H19" s="14">
+      <c r="M19" s="14">
         <v>1112352</v>
       </c>
     </row>
@@ -676,18 +996,33 @@
         <v/>
       </c>
       <c r="D20" s="18">
+        <v>141337</v>
+      </c>
+      <c r="E20" s="18">
+        <v>190765</v>
+      </c>
+      <c r="F20" s="18">
+        <v>63226</v>
+      </c>
+      <c r="G20" s="18">
+        <v>43145</v>
+      </c>
+      <c r="H20" s="18">
+        <v>53021</v>
+      </c>
+      <c r="I20" s="18">
         <v>294403</v>
       </c>
-      <c r="E20" s="18">
+      <c r="J20" s="18">
         <v>599542</v>
       </c>
-      <c r="F20" s="18">
+      <c r="K20" s="18">
         <v>566569</v>
       </c>
-      <c r="G20" s="18">
+      <c r="L20" s="18">
         <v>1649417</v>
       </c>
-      <c r="H20" s="18">
+      <c r="M20" s="18">
         <v>2821697</v>
       </c>
     </row>
@@ -701,18 +1036,33 @@
         <v/>
       </c>
       <c r="D21" s="14">
+        <v>-25090</v>
+      </c>
+      <c r="E21" s="14">
+        <v>-30223</v>
+      </c>
+      <c r="F21" s="14">
+        <v>-6075</v>
+      </c>
+      <c r="G21" s="14">
+        <v>-14533</v>
+      </c>
+      <c r="H21" s="14">
+        <v>-7006</v>
+      </c>
+      <c r="I21" s="14">
         <v>-63380</v>
       </c>
-      <c r="E21" s="14">
+      <c r="J21" s="14">
         <v>-140438</v>
       </c>
-      <c r="F21" s="14">
+      <c r="K21" s="14">
         <v>-88605</v>
       </c>
-      <c r="G21" s="14">
+      <c r="L21" s="14">
         <v>-112373</v>
       </c>
-      <c r="H21" s="14">
+      <c r="M21" s="14">
         <v>-170562</v>
       </c>
     </row>
@@ -726,18 +1076,33 @@
         <v/>
       </c>
       <c r="D22" s="18">
+        <v>116247</v>
+      </c>
+      <c r="E22" s="18">
+        <v>160542</v>
+      </c>
+      <c r="F22" s="18">
+        <v>57151</v>
+      </c>
+      <c r="G22" s="18">
+        <v>28612</v>
+      </c>
+      <c r="H22" s="18">
+        <v>46015</v>
+      </c>
+      <c r="I22" s="18">
         <v>231023</v>
       </c>
-      <c r="E22" s="18">
+      <c r="J22" s="18">
         <v>459104</v>
       </c>
-      <c r="F22" s="18">
+      <c r="K22" s="18">
         <v>477964</v>
       </c>
-      <c r="G22" s="18">
+      <c r="L22" s="18">
         <v>1537044</v>
       </c>
-      <c r="H22" s="18">
+      <c r="M22" s="18">
         <v>2651135</v>
       </c>
     </row>
@@ -765,6 +1130,21 @@
       <c r="H23" s="14">
         <v>0</v>
       </c>
+      <c r="I23" s="14">
+        <v>0</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0</v>
+      </c>
+      <c r="K23" s="14">
+        <v>0</v>
+      </c>
+      <c r="L23" s="14">
+        <v>0</v>
+      </c>
+      <c r="M23" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" s="17" t="inlineStr">
@@ -776,18 +1156,33 @@
         <v/>
       </c>
       <c r="D24" s="18">
+        <v>116247</v>
+      </c>
+      <c r="E24" s="18">
+        <v>160542</v>
+      </c>
+      <c r="F24" s="18">
+        <v>57151</v>
+      </c>
+      <c r="G24" s="18">
+        <v>28612</v>
+      </c>
+      <c r="H24" s="18">
+        <v>46015</v>
+      </c>
+      <c r="I24" s="18">
         <v>231023</v>
       </c>
-      <c r="E24" s="18">
+      <c r="J24" s="18">
         <v>459104</v>
       </c>
-      <c r="F24" s="18">
+      <c r="K24" s="18">
         <v>477964</v>
       </c>
-      <c r="G24" s="18">
+      <c r="L24" s="18">
         <v>1537044</v>
       </c>
-      <c r="H24" s="18">
+      <c r="M24" s="18">
         <v>2651135</v>
       </c>
     </row>
@@ -801,18 +1196,33 @@
         <v/>
       </c>
       <c r="D25" s="14">
+        <v>465</v>
+      </c>
+      <c r="E25" s="14">
+        <v>642</v>
+      </c>
+      <c r="F25" s="14">
+        <v>229</v>
+      </c>
+      <c r="G25" s="14">
+        <v>114</v>
+      </c>
+      <c r="H25" s="14">
+        <v>184</v>
+      </c>
+      <c r="I25" s="14">
         <v>924</v>
       </c>
-      <c r="E25" s="14">
+      <c r="J25" s="14">
         <v>1836</v>
       </c>
-      <c r="F25" s="14">
+      <c r="K25" s="14">
         <v>1912</v>
       </c>
-      <c r="G25" s="14">
+      <c r="L25" s="14">
         <v>6148</v>
       </c>
-      <c r="H25" s="14">
+      <c r="M25" s="14">
         <v>415</v>
       </c>
     </row>
@@ -838,6 +1248,21 @@
         <v>250000</v>
       </c>
       <c r="H26" s="12">
+        <v>250000</v>
+      </c>
+      <c r="I26" s="12">
+        <v>250000</v>
+      </c>
+      <c r="J26" s="12">
+        <v>250000</v>
+      </c>
+      <c r="K26" s="12">
+        <v>250000</v>
+      </c>
+      <c r="L26" s="12">
+        <v>250000</v>
+      </c>
+      <c r="M26" s="12">
         <v>6385128</v>
       </c>
     </row>
@@ -851,18 +1276,33 @@
         <v/>
       </c>
       <c r="D27" s="14">
+        <v>18</v>
+      </c>
+      <c r="E27" s="14">
+        <v>25</v>
+      </c>
+      <c r="F27" s="14">
+        <v>9</v>
+      </c>
+      <c r="G27" s="14">
+        <v>4</v>
+      </c>
+      <c r="H27" s="14">
+        <v>7</v>
+      </c>
+      <c r="I27" s="14">
         <v>36</v>
       </c>
-      <c r="E27" s="14">
+      <c r="J27" s="14">
         <v>72</v>
       </c>
-      <c r="F27" s="14">
+      <c r="K27" s="14">
         <v>75</v>
       </c>
-      <c r="G27" s="14">
+      <c r="L27" s="14">
         <v>241</v>
       </c>
-      <c r="H27" s="14">
+      <c r="M27" s="14">
         <v>415</v>
       </c>
     </row>
@@ -886,6 +1326,21 @@
         <v/>
       </c>
       <c r="H28" s="2">
+        <v/>
+      </c>
+      <c r="I28" s="2">
+        <v/>
+      </c>
+      <c r="J28" s="2">
+        <v/>
+      </c>
+      <c r="K28" s="2">
+        <v/>
+      </c>
+      <c r="L28" s="2">
+        <v/>
+      </c>
+      <c r="M28" s="2">
         <v/>
       </c>
     </row>

--- a/database/industries/dode/shekarbon/income/yearly/rial.xlsx
+++ b/database/industries/dode/shekarbon/income/yearly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shekarbon\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A506EA13-6787-4D75-9E3F-03A70F26231F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA119842-0832-4E2C-8D00-75FD607AF7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شکربن-کربن‌ ایران‌</t>
@@ -37,21 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1391/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1392/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1393/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1394/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1395/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1396/12</t>
   </si>
   <si>
@@ -70,21 +55,6 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1393-04-19 (18)</t>
-  </si>
-  <si>
-    <t>1394-03-07 (19)</t>
-  </si>
-  <si>
-    <t>1395-03-19 (18)</t>
-  </si>
-  <si>
-    <t>1396-03-09 (12)</t>
-  </si>
-  <si>
-    <t>1397-03-10 (15)</t>
-  </si>
-  <si>
     <t>1398-03-09 (8)</t>
   </si>
   <si>
@@ -97,7 +67,7 @@
     <t>1401-03-09 (9)</t>
   </si>
   <si>
-    <t>1401-07-30 (4)</t>
+    <t>1401-10-29 (6)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -618,18 +588,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="13" width="29" customWidth="1"/>
+    <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -637,13 +607,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -653,13 +618,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -669,13 +629,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -683,13 +638,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -699,13 +649,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -715,13 +660,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -729,13 +669,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -755,59 +690,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -815,447 +720,262 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>816457</v>
+        <v>1489755</v>
       </c>
       <c r="E11" s="13">
-        <v>1350661</v>
+        <v>2682940</v>
       </c>
       <c r="F11" s="13">
-        <v>985662</v>
+        <v>2986339</v>
       </c>
       <c r="G11" s="13">
-        <v>830678</v>
+        <v>5965435</v>
       </c>
       <c r="H11" s="13">
-        <v>934324</v>
-      </c>
-      <c r="I11" s="13">
-        <v>1489755</v>
-      </c>
-      <c r="J11" s="13">
-        <v>2682940</v>
-      </c>
-      <c r="K11" s="13">
-        <v>2986339</v>
-      </c>
-      <c r="L11" s="13">
-        <v>5965435</v>
-      </c>
-      <c r="M11" s="13">
         <v>10103962</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-604323</v>
+        <v>-1093572</v>
       </c>
       <c r="E12" s="11">
-        <v>-1127524</v>
+        <v>-1915543</v>
       </c>
       <c r="F12" s="11">
-        <v>-869403</v>
+        <v>-2328617</v>
       </c>
       <c r="G12" s="11">
-        <v>-746705</v>
+        <v>-4450800</v>
       </c>
       <c r="H12" s="11">
-        <v>-820677</v>
-      </c>
-      <c r="I12" s="11">
-        <v>-1093572</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-1915543</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-2328617</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-4450800</v>
-      </c>
-      <c r="M12" s="11">
         <v>-7694963</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>212134</v>
+        <v>396183</v>
       </c>
       <c r="E13" s="15">
-        <v>223137</v>
+        <v>767397</v>
       </c>
       <c r="F13" s="15">
-        <v>116259</v>
+        <v>657722</v>
       </c>
       <c r="G13" s="15">
-        <v>83973</v>
+        <v>1514635</v>
       </c>
       <c r="H13" s="15">
-        <v>113647</v>
-      </c>
-      <c r="I13" s="15">
-        <v>396183</v>
-      </c>
-      <c r="J13" s="15">
-        <v>767397</v>
-      </c>
-      <c r="K13" s="15">
-        <v>657722</v>
-      </c>
-      <c r="L13" s="15">
-        <v>1514635</v>
-      </c>
-      <c r="M13" s="15">
         <v>2408999</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-23902</v>
+        <v>-93811</v>
       </c>
       <c r="E14" s="11">
-        <v>-31191</v>
+        <v>-178095</v>
       </c>
       <c r="F14" s="11">
-        <v>-39516</v>
+        <v>-139126</v>
       </c>
       <c r="G14" s="11">
-        <v>-51165</v>
+        <v>-483226</v>
       </c>
       <c r="H14" s="11">
-        <v>-63113</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-93811</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-178095</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-139126</v>
-      </c>
-      <c r="L14" s="11">
-        <v>-483226</v>
-      </c>
-      <c r="M14" s="11">
         <v>-677517</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="13">
+        <v>21</v>
+      </c>
+      <c r="E15" s="13">
         <v>0</v>
       </c>
-      <c r="K15" s="13">
+      <c r="F15" s="13">
         <v>-160741</v>
       </c>
-      <c r="L15" s="13">
+      <c r="G15" s="13">
         <v>0</v>
       </c>
-      <c r="M15" s="13">
+      <c r="H15" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>-19788</v>
+        <v>-229</v>
       </c>
       <c r="E16" s="11">
-        <v>-13535</v>
+        <v>2022</v>
       </c>
       <c r="F16" s="11">
-        <v>-14359</v>
+        <v>-59105</v>
       </c>
       <c r="G16" s="11">
-        <v>4914</v>
+        <v>28901</v>
       </c>
       <c r="H16" s="11">
-        <v>496</v>
-      </c>
-      <c r="I16" s="11">
-        <v>-229</v>
-      </c>
-      <c r="J16" s="11">
-        <v>2022</v>
-      </c>
-      <c r="K16" s="11">
-        <v>-59105</v>
-      </c>
-      <c r="L16" s="11">
-        <v>28901</v>
-      </c>
-      <c r="M16" s="11">
         <v>30206</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>168444</v>
+        <v>302143</v>
       </c>
       <c r="E17" s="15">
-        <v>178411</v>
+        <v>591324</v>
       </c>
       <c r="F17" s="15">
-        <v>62384</v>
+        <v>298750</v>
       </c>
       <c r="G17" s="15">
-        <v>37722</v>
+        <v>1060310</v>
       </c>
       <c r="H17" s="15">
-        <v>51030</v>
-      </c>
-      <c r="I17" s="15">
-        <v>302143</v>
-      </c>
-      <c r="J17" s="15">
-        <v>591324</v>
-      </c>
-      <c r="K17" s="15">
-        <v>298750</v>
-      </c>
-      <c r="L17" s="15">
-        <v>1060310</v>
-      </c>
-      <c r="M17" s="15">
         <v>1761688</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-56931</v>
+        <v>-11522</v>
       </c>
       <c r="E18" s="11">
-        <v>-44084</v>
+        <v>-14319</v>
       </c>
       <c r="F18" s="11">
-        <v>-31879</v>
+        <v>-23233</v>
       </c>
       <c r="G18" s="11">
-        <v>-24605</v>
+        <v>-17332</v>
       </c>
       <c r="H18" s="11">
-        <v>-17255</v>
-      </c>
-      <c r="I18" s="11">
-        <v>-11522</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-14319</v>
-      </c>
-      <c r="K18" s="11">
-        <v>-23233</v>
-      </c>
-      <c r="L18" s="11">
-        <v>-17332</v>
-      </c>
-      <c r="M18" s="11">
         <v>-52343</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>29824</v>
+        <v>3782</v>
       </c>
       <c r="E19" s="13">
-        <v>56438</v>
+        <v>22537</v>
       </c>
       <c r="F19" s="13">
-        <v>32721</v>
+        <v>291052</v>
       </c>
       <c r="G19" s="13">
-        <v>30028</v>
+        <v>606439</v>
       </c>
       <c r="H19" s="13">
-        <v>19246</v>
-      </c>
-      <c r="I19" s="13">
-        <v>3782</v>
-      </c>
-      <c r="J19" s="13">
-        <v>22537</v>
-      </c>
-      <c r="K19" s="13">
-        <v>291052</v>
-      </c>
-      <c r="L19" s="13">
-        <v>606439</v>
-      </c>
-      <c r="M19" s="13">
         <v>1112352</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>141337</v>
+        <v>294403</v>
       </c>
       <c r="E20" s="17">
-        <v>190765</v>
+        <v>599542</v>
       </c>
       <c r="F20" s="17">
-        <v>63226</v>
+        <v>566569</v>
       </c>
       <c r="G20" s="17">
-        <v>43145</v>
+        <v>1649417</v>
       </c>
       <c r="H20" s="17">
-        <v>53021</v>
-      </c>
-      <c r="I20" s="17">
-        <v>294403</v>
-      </c>
-      <c r="J20" s="17">
-        <v>599542</v>
-      </c>
-      <c r="K20" s="17">
-        <v>566569</v>
-      </c>
-      <c r="L20" s="17">
-        <v>1649417</v>
-      </c>
-      <c r="M20" s="17">
         <v>2821697</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-25090</v>
+        <v>-63380</v>
       </c>
       <c r="E21" s="13">
-        <v>-30223</v>
+        <v>-140438</v>
       </c>
       <c r="F21" s="13">
-        <v>-6075</v>
+        <v>-88605</v>
       </c>
       <c r="G21" s="13">
-        <v>-14533</v>
+        <v>-112373</v>
       </c>
       <c r="H21" s="13">
-        <v>-7006</v>
-      </c>
-      <c r="I21" s="13">
-        <v>-63380</v>
-      </c>
-      <c r="J21" s="13">
-        <v>-140438</v>
-      </c>
-      <c r="K21" s="13">
-        <v>-88605</v>
-      </c>
-      <c r="L21" s="13">
-        <v>-112373</v>
-      </c>
-      <c r="M21" s="13">
         <v>-170562</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>116247</v>
+        <v>231023</v>
       </c>
       <c r="E22" s="17">
-        <v>160542</v>
+        <v>459104</v>
       </c>
       <c r="F22" s="17">
-        <v>57151</v>
+        <v>477964</v>
       </c>
       <c r="G22" s="17">
-        <v>28612</v>
+        <v>1537044</v>
       </c>
       <c r="H22" s="17">
-        <v>46015</v>
-      </c>
-      <c r="I22" s="17">
-        <v>231023</v>
-      </c>
-      <c r="J22" s="17">
-        <v>459104</v>
-      </c>
-      <c r="K22" s="17">
-        <v>477964</v>
-      </c>
-      <c r="L22" s="17">
-        <v>1537044</v>
-      </c>
-      <c r="M22" s="17">
         <v>2651135</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1273,97 +993,52 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>116247</v>
+        <v>231023</v>
       </c>
       <c r="E24" s="17">
-        <v>160542</v>
+        <v>459104</v>
       </c>
       <c r="F24" s="17">
-        <v>57151</v>
+        <v>477964</v>
       </c>
       <c r="G24" s="17">
-        <v>28612</v>
+        <v>1537044</v>
       </c>
       <c r="H24" s="17">
-        <v>46015</v>
-      </c>
-      <c r="I24" s="17">
-        <v>231023</v>
-      </c>
-      <c r="J24" s="17">
-        <v>459104</v>
-      </c>
-      <c r="K24" s="17">
-        <v>477964</v>
-      </c>
-      <c r="L24" s="17">
-        <v>1537044</v>
-      </c>
-      <c r="M24" s="17">
         <v>2651135</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>465</v>
+        <v>924</v>
       </c>
       <c r="E25" s="13">
-        <v>642</v>
+        <v>1836</v>
       </c>
       <c r="F25" s="13">
-        <v>229</v>
+        <v>1912</v>
       </c>
       <c r="G25" s="13">
-        <v>114</v>
+        <v>6148</v>
       </c>
       <c r="H25" s="13">
-        <v>184</v>
-      </c>
-      <c r="I25" s="13">
-        <v>924</v>
-      </c>
-      <c r="J25" s="13">
-        <v>1836</v>
-      </c>
-      <c r="K25" s="13">
-        <v>1912</v>
-      </c>
-      <c r="L25" s="13">
-        <v>6148</v>
-      </c>
-      <c r="M25" s="13">
         <v>415</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
@@ -1379,61 +1054,31 @@
         <v>250000</v>
       </c>
       <c r="H26" s="11">
-        <v>250000</v>
-      </c>
-      <c r="I26" s="11">
-        <v>250000</v>
-      </c>
-      <c r="J26" s="11">
-        <v>250000</v>
-      </c>
-      <c r="K26" s="11">
-        <v>250000</v>
-      </c>
-      <c r="L26" s="11">
-        <v>250000</v>
-      </c>
-      <c r="M26" s="11">
         <v>6385128</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E27" s="13">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F27" s="13">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="G27" s="13">
-        <v>4</v>
+        <v>241</v>
       </c>
       <c r="H27" s="13">
-        <v>7</v>
-      </c>
-      <c r="I27" s="13">
-        <v>36</v>
-      </c>
-      <c r="J27" s="13">
-        <v>72</v>
-      </c>
-      <c r="K27" s="13">
-        <v>75</v>
-      </c>
-      <c r="L27" s="13">
-        <v>241</v>
-      </c>
-      <c r="M27" s="13">
         <v>415</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1441,11 +1086,6 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/dode/shekarbon/income/yearly/rial.xlsx
+++ b/database/industries/dode/shekarbon/income/yearly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA119842-0832-4E2C-8D00-75FD607AF7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285A9FE8-BE30-4F1F-8DC7-D88FF676F948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -592,14 +592,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -608,7 +608,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -630,7 +630,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -639,7 +639,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -670,7 +670,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -691,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -712,7 +712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -721,7 +721,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -742,7 +742,7 @@
         <v>10103962</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -763,7 +763,7 @@
         <v>-7694963</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
@@ -784,7 +784,7 @@
         <v>2408999</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -805,7 +805,7 @@
         <v>-677517</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
@@ -847,7 +847,7 @@
         <v>30206</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>23</v>
       </c>
@@ -868,7 +868,7 @@
         <v>1761688</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
@@ -889,7 +889,7 @@
         <v>-52343</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
@@ -910,7 +910,7 @@
         <v>1112352</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>26</v>
       </c>
@@ -931,7 +931,7 @@
         <v>2821697</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
@@ -952,7 +952,7 @@
         <v>-170562</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>28</v>
       </c>
@@ -973,7 +973,7 @@
         <v>2651135</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>29</v>
       </c>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>30</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>2651135</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>31</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>6385128</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>33</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
